--- a/b11_1/fields/fields_with_relations_and_constraints.xlsx
+++ b/b11_1/fields/fields_with_relations_and_constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adb.intra.admin.ch\UserHome$\VTG-01\U80822934\data\Documents\____SYM\_SYMM\Grundlagen ILS\Beilage 11.1\Entw\20241021_current\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adb.intra.admin.ch\UserHome$\VTG-01\U80822934\data\Documents\____SYM\_SYMM\Grundlagen ILS\Beilage 11.1\_b11-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D570E4-9377-46D8-A31D-6CD5E60A2E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F114C635-0950-4716-826F-4271CDE9655B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Lieferant" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="109">
   <si>
     <t>Positions-Nr.</t>
   </si>
@@ -510,6 +510,9 @@
   </si>
   <si>
     <t>Field</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -546,12 +549,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -777,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -794,6 +803,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,683 +1116,736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G46"/>
+  <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D13" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D20" s="21"/>
+      <c r="E20" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D21" s="21"/>
+      <c r="E21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D25" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
+      <c r="D29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
+      <c r="D31" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="D32" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="D33" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="D34" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D35" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
+      <c r="D36" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
+      <c r="D40" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
+      <c r="D41" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
+      <c r="D42" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
+      <c r="D43" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <v>44</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1759,319 +1854,348 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45268E68-3979-422D-9E08-1E63DD4A2AF3}">
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D3" s="19"/>
+      <c r="E3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D4" s="21"/>
+      <c r="E4" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D14" s="21"/>
+      <c r="E14" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D16" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2079,491 +2203,532 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFF6FEE-38EA-42B3-B01F-B28AA2416212}">
-  <dimension ref="B1:G34"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D3" s="19"/>
+      <c r="E3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D4" s="21"/>
+      <c r="E4" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D24" s="21"/>
+      <c r="E24" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D25" s="21"/>
+      <c r="E25" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D26" s="21"/>
+      <c r="E26" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D27" s="21"/>
+      <c r="E27" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D28" s="21"/>
+      <c r="E28" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>27</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>30</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>31</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/b11_1/fields/fields_with_relations_and_constraints.xlsx
+++ b/b11_1/fields/fields_with_relations_and_constraints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adb.intra.admin.ch\UserHome$\VTG-01\U80822934\data\Documents\____SYM\_SYMM\Grundlagen ILS\Beilage 11.1\_b11-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/Prog/Python/LBA/b11_1/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F114C635-0950-4716-826F-4271CDE9655B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6959CAB2-7FF3-884C-AC8A-ABD02E602B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Lieferant" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -104,12 +104,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-bei SBM</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bei SBM</t>
         </r>
       </text>
     </comment>
@@ -519,7 +528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +554,19 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1118,22 +1140,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>106</v>
       </c>
@@ -1156,7 +1178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7">
         <v>2</v>
       </c>
@@ -1171,7 +1193,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -1188,7 +1210,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -1205,7 +1227,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1222,7 +1244,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -1239,7 +1261,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -1254,7 +1276,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1271,7 +1293,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -1286,7 +1308,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -1303,7 +1325,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -1318,7 +1340,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -1335,7 +1357,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -1352,7 +1374,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -1369,7 +1391,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -1384,7 +1406,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -1397,7 +1419,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -1412,7 +1434,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -1427,7 +1449,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -1442,7 +1464,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -1457,7 +1479,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -1474,7 +1496,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>22</v>
       </c>
@@ -1489,7 +1511,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -1504,7 +1526,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -1521,7 +1543,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -1538,7 +1560,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -1553,7 +1575,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>27</v>
       </c>
@@ -1568,7 +1590,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>28</v>
       </c>
@@ -1585,7 +1607,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>29</v>
       </c>
@@ -1602,7 +1624,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -1619,7 +1641,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>31</v>
       </c>
@@ -1636,7 +1658,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>32</v>
       </c>
@@ -1653,7 +1675,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -1670,7 +1692,7 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>34</v>
       </c>
@@ -1687,7 +1709,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>35</v>
       </c>
@@ -1704,7 +1726,7 @@
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -1719,7 +1741,7 @@
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -1734,7 +1756,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -1749,7 +1771,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -1766,7 +1788,7 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -1783,7 +1805,7 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -1800,7 +1822,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -1817,7 +1839,7 @@
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -1832,7 +1854,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>44</v>
       </c>
@@ -1845,7 +1867,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1856,22 +1878,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45268E68-3979-422D-9E08-1E63DD4A2AF3}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>106</v>
       </c>
@@ -1894,7 +1916,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -1909,7 +1931,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1924,7 +1946,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1941,7 +1963,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1958,7 +1980,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1975,7 +1997,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1992,7 +2014,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -2009,7 +2031,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -2026,7 +2048,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -2041,7 +2063,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -2056,7 +2078,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -2071,7 +2093,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -2086,7 +2108,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -2101,7 +2123,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -2118,7 +2140,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -2135,7 +2157,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -2150,7 +2172,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -2165,7 +2187,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -2180,7 +2202,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -2195,7 +2217,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2206,21 +2228,21 @@
   <dimension ref="B1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>106</v>
       </c>
@@ -2243,7 +2265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -2258,7 +2280,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2273,7 +2295,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -2290,7 +2312,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -2305,7 +2327,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -2320,7 +2342,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -2335,7 +2357,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -2352,7 +2374,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -2369,7 +2391,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -2386,7 +2408,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -2401,7 +2423,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -2416,7 +2438,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -2431,7 +2453,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -2448,7 +2470,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -2463,7 +2485,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -2480,7 +2502,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -2495,7 +2517,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -2510,7 +2532,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -2525,7 +2547,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -2540,7 +2562,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -2557,7 +2579,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -2574,7 +2596,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -2589,7 +2611,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -2604,7 +2626,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -2619,7 +2641,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -2634,7 +2656,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -2649,7 +2671,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -2666,7 +2688,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -2681,7 +2703,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -2696,7 +2718,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -2713,7 +2735,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>31</v>
       </c>
@@ -2728,7 +2750,7 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/b11_1/fields/fields_with_relations_and_constraints.xlsx
+++ b/b11_1/fields/fields_with_relations_and_constraints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/Prog/Python/LBA/b11_1/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6959CAB2-7FF3-884C-AC8A-ABD02E602B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE1A61-DA3A-B643-8FF0-A0C1610A6B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="20620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Lieferant" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="109">
   <si>
     <t>Positions-Nr.</t>
   </si>
@@ -808,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -856,6 +856,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1140,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1878,7 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45268E68-3979-422D-9E08-1E63DD4A2AF3}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1990,7 +1993,9 @@
       <c r="D7" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="25" t="s">
+        <v>93</v>
+      </c>
       <c r="F7" s="22"/>
       <c r="G7" s="2" t="s">
         <v>100</v>
@@ -2210,7 +2215,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="27" t="s">
         <v>93</v>
       </c>
       <c r="F21" s="24"/>
